--- a/2022/Price List/Symphony Price List 03.03.2022.xlsx
+++ b/2022/Price List/Symphony Price List 03.03.2022.xlsx
@@ -325,9 +325,6 @@
     <t>Mugdho Corporation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Price List of Symphony Mobile (03.03.2022)</t>
-  </si>
-  <si>
     <t>01717436223</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t xml:space="preserve">             mugdhocorporation@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Price List of Symphony Mobile (24.03.2022)</t>
   </si>
 </sst>
 </file>
@@ -343,7 +343,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -713,48 +713,108 @@
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,21 +836,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="13" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -800,36 +845,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -852,21 +867,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3206,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3225,1374 +3225,1374 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="1"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="1"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35"/>
+      <c r="B4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="34"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1080</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="14">
+        <v>960</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1030</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="14">
+        <v>970</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1050</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="29">
+        <v>980</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1070</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1190</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="29">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1190</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1060</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1150</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1290</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1200</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1290</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1250</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1350</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1460</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1570</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1190</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1290</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1290</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="34"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1140</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1220</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="34"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1260</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1350</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="34"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1210</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1299</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="34"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1250</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1350</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="34"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1240</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1330</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="34"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1299</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="34"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1250</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1340</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="34"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1280</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1380</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="34"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1399</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="34"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1340</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1430</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="34"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1370</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1470</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="34"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1440</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1540</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="34"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1430</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1540</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="34"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="35"/>
+      <c r="B31" s="11">
+        <v>30</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1330</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1420</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="34"/>
+    </row>
+    <row r="32" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="35"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="34"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="19">
+        <v>1</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="21">
+        <v>7430</v>
+      </c>
+      <c r="E33" s="21">
+        <v>7990</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="34"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="3">
+        <v>7240</v>
+      </c>
+      <c r="E34" s="3">
+        <v>7790</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="14">
+        <v>4840</v>
+      </c>
+      <c r="E35" s="14">
+        <v>5190</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="34"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="14">
+        <v>5600</v>
+      </c>
+      <c r="E36" s="14">
+        <v>5990</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" s="34"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E37" s="3">
+        <v>6990</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" s="34"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" s="1">
+        <v>6</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="14">
+        <v>6570</v>
+      </c>
+      <c r="E38" s="14">
+        <v>6990</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="34"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="35"/>
+      <c r="B39" s="1">
+        <v>8</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="14">
+        <v>6100</v>
+      </c>
+      <c r="E39" s="14">
+        <v>6490</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" s="34"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="35"/>
+      <c r="B40" s="1">
+        <v>9</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="14">
+        <v>7430</v>
+      </c>
+      <c r="E40" s="14">
+        <v>7990</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="34"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="35"/>
+      <c r="B41" s="1">
+        <v>10</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="14">
+        <v>9300</v>
+      </c>
+      <c r="E41" s="14">
+        <v>9790</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" s="34"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="35"/>
+      <c r="B42" s="1">
+        <v>11</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="14">
+        <v>10130</v>
+      </c>
+      <c r="E42" s="14">
+        <v>10890</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J42" s="34"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="35"/>
+      <c r="B43" s="1">
+        <v>12</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="14">
+        <v>7700</v>
+      </c>
+      <c r="E43" s="14">
+        <v>8190</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" s="34"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="35"/>
+      <c r="B44" s="1">
+        <v>14</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="14">
+        <v>7980</v>
+      </c>
+      <c r="E44" s="14">
+        <v>8490</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="34"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="35"/>
+      <c r="B45" s="1">
+        <v>15</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="14">
+        <v>7980</v>
+      </c>
+      <c r="E45" s="14">
+        <v>8590</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="34"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="35"/>
+      <c r="B46" s="1">
+        <v>16</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="8">
+        <v>8490</v>
+      </c>
+      <c r="E46" s="8">
+        <v>8990</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" s="34"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="35"/>
+      <c r="B47" s="1">
+        <v>17</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="14">
+        <v>9290</v>
+      </c>
+      <c r="E47" s="14">
+        <v>9990</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" s="34"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="35"/>
+      <c r="B48" s="1">
+        <v>18</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="14">
+        <v>10230</v>
+      </c>
+      <c r="E48" s="14">
+        <v>10990</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="34"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="35"/>
+      <c r="B49" s="1">
+        <v>19</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="14">
+        <v>9290</v>
+      </c>
+      <c r="E49" s="14">
+        <v>9990</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J49" s="34"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="35"/>
+      <c r="B50" s="11">
+        <v>20</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="17">
+        <v>9580</v>
+      </c>
+      <c r="E50" s="17">
+        <v>10190</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J50" s="34"/>
+    </row>
+    <row r="51" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35"/>
+      <c r="B51" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="30">
-        <v>1</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="35">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="35">
-        <v>1080</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="33">
-        <v>0</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="22">
-        <v>960</v>
-      </c>
-      <c r="E6" s="22">
-        <v>1030</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="22">
-        <v>970</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1050</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="48">
-        <v>980</v>
-      </c>
-      <c r="E8" s="22">
-        <v>1070</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="48">
-        <v>1100</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1190</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="48">
-        <v>1100</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1190</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="22">
-        <v>1060</v>
-      </c>
-      <c r="E11" s="22">
-        <v>1150</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="22">
-        <v>1200</v>
-      </c>
-      <c r="E12" s="22">
-        <v>1290</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="22">
-        <v>1200</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1290</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="22">
-        <v>1250</v>
-      </c>
-      <c r="E14" s="22">
-        <v>1350</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="22">
-        <v>1460</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1570</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="2">
-        <v>14</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="22">
-        <v>1190</v>
-      </c>
-      <c r="E16" s="22">
-        <v>1290</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="2">
-        <v>15</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="22">
-        <v>1200</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1290</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="2">
-        <v>16</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="22">
-        <v>1140</v>
-      </c>
-      <c r="E18" s="22">
-        <v>1220</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="22">
-        <v>1260</v>
-      </c>
-      <c r="E19" s="22">
-        <v>1350</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="22">
-        <v>1210</v>
-      </c>
-      <c r="E20" s="22">
-        <v>1299</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="22">
-        <v>1250</v>
-      </c>
-      <c r="E21" s="22">
-        <v>1350</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="22">
-        <v>1240</v>
-      </c>
-      <c r="E22" s="22">
-        <v>1330</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="2">
-        <v>22</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="22">
-        <v>1200</v>
-      </c>
-      <c r="E23" s="22">
-        <v>1299</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="22">
-        <v>1250</v>
-      </c>
-      <c r="E24" s="22">
-        <v>1340</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="22">
-        <v>1280</v>
-      </c>
-      <c r="E25" s="22">
-        <v>1380</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="22">
-        <v>1300</v>
-      </c>
-      <c r="E26" s="22">
-        <v>1399</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1340</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1430</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="22">
-        <v>1370</v>
-      </c>
-      <c r="E28" s="22">
-        <v>1470</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1440</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1540</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="22">
-        <v>1430</v>
-      </c>
-      <c r="E30" s="22">
-        <v>1540</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="12">
-        <v>30</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="25">
-        <v>1330</v>
-      </c>
-      <c r="E31" s="25">
-        <v>1420</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="13">
-        <v>0</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="30">
-        <v>1</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="32">
-        <v>7430</v>
-      </c>
-      <c r="E33" s="32">
-        <v>7990</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="2">
-        <v>2</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="4">
-        <v>7240</v>
-      </c>
-      <c r="E34" s="4">
-        <v>7790</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="2">
-        <v>3</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="22">
-        <v>4840</v>
-      </c>
-      <c r="E35" s="22">
-        <v>5190</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="2">
-        <v>4</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="22">
-        <v>5600</v>
-      </c>
-      <c r="E36" s="22">
-        <v>5990</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="2">
-        <v>5</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="4">
-        <v>6500</v>
-      </c>
-      <c r="E37" s="4">
-        <v>6990</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="2">
-        <v>6</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="22">
-        <v>6570</v>
-      </c>
-      <c r="E38" s="22">
-        <v>6990</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="2">
-        <v>8</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="22">
-        <v>6100</v>
-      </c>
-      <c r="E39" s="22">
-        <v>6490</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="2">
-        <v>9</v>
-      </c>
-      <c r="C40" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="22">
-        <v>7430</v>
-      </c>
-      <c r="E40" s="22">
-        <v>7990</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="2">
-        <v>10</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="22">
-        <v>9300</v>
-      </c>
-      <c r="E41" s="22">
-        <v>9790</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="2">
-        <v>11</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="22">
-        <v>10130</v>
-      </c>
-      <c r="E42" s="22">
-        <v>10890</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="2">
-        <v>12</v>
-      </c>
-      <c r="C43" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="22">
-        <v>7700</v>
-      </c>
-      <c r="E43" s="22">
-        <v>8190</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="2">
-        <v>14</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="22">
-        <v>7980</v>
-      </c>
-      <c r="E44" s="22">
-        <v>8490</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="2">
-        <v>15</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="22">
-        <v>7980</v>
-      </c>
-      <c r="E45" s="22">
-        <v>8590</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="2">
-        <v>16</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="9">
-        <v>8490</v>
-      </c>
-      <c r="E46" s="9">
-        <v>8990</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="2">
-        <v>17</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="22">
-        <v>9290</v>
-      </c>
-      <c r="E47" s="22">
-        <v>9990</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="2">
-        <v>18</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="22">
-        <v>10230</v>
-      </c>
-      <c r="E48" s="22">
-        <v>10990</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="2">
-        <v>19</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="22">
-        <v>9290</v>
-      </c>
-      <c r="E49" s="22">
-        <v>9990</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
-      <c r="B50" s="12">
-        <v>20</v>
-      </c>
-      <c r="C50" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="25">
-        <v>9580</v>
-      </c>
-      <c r="E50" s="25">
-        <v>10190</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I50" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
-      <c r="B51" s="40" t="s">
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="43" t="s">
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="I51" s="47"/>
-      <c r="J51" s="1"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="34"/>
     </row>
     <row r="52" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
